--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1827190461363699</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.66991376109709</v>
+        <v>-1.670551238841217</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2067339182801541</v>
+        <v>-0.2046625091165224</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3148060711486593</v>
+        <v>-0.3138459194846659</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1961656960062863</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.812402629062395</v>
+        <v>-1.811492846010284</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1922797006892498</v>
+        <v>-0.1903830076480825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.316715356342797</v>
+        <v>-0.3155348420018215</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2212979834232145</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.992159547762737</v>
+        <v>-1.990576084526709</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2672769897618637</v>
+        <v>-0.265027716437525</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3485026724974644</v>
+        <v>-0.3469223572996785</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2447989256168197</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.019791453437171</v>
+        <v>-2.019218510477018</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2409090214418346</v>
+        <v>-0.2389792739991199</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3523102247518908</v>
+        <v>-0.3512493358641341</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2550155181229863</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.957276923006032</v>
+        <v>-1.956314410313357</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1938017771795476</v>
+        <v>-0.1916060205053332</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3659553965144464</v>
+        <v>-0.364948024276814</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2479345987130014</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.710230686870086</v>
+        <v>-1.71018740134425</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1694375352009343</v>
+        <v>-0.1671929839339595</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.383348307804819</v>
+        <v>-0.3823267693950949</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2260202381968515</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.48817436531347</v>
+        <v>-1.488203484667214</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05199682052244735</v>
+        <v>-0.04920451060125992</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3666967595205791</v>
+        <v>-0.3655634657532426</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1880324033204781</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.205732374187275</v>
+        <v>-1.205240493211868</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002981865085143927</v>
+        <v>-6.728694004247562e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3181303995328463</v>
+        <v>-0.3169813655742968</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1297661977751596</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.025558340419788</v>
+        <v>-1.023287030827751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1443793790701478</v>
+        <v>0.1459896006312384</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3126150365318087</v>
+        <v>-0.3112236036285789</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04609051596705388</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7969690525002138</v>
+        <v>-0.7922847715952229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724394179455751</v>
+        <v>0.1725983938768265</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2993271671097883</v>
+        <v>-0.2977389818163959</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07163521434134709</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5716639554772334</v>
+        <v>-0.565432413776004</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1667036922675554</v>
+        <v>0.166099268924976</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2527220349471963</v>
+        <v>-0.250370450379973</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2308419329730133</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3670351736316587</v>
+        <v>-0.3583780684645049</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01102352877586914</v>
+        <v>-0.01172711532309055</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2015475252754683</v>
+        <v>-0.1992840857790379</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4294343477180078</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05882963752801363</v>
+        <v>-0.04897312979042873</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1276079770523685</v>
+        <v>-0.1293456941622844</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09191551945775409</v>
+        <v>-0.08937190455773218</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6610636044290661</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3345665354777886</v>
+        <v>0.3451439439729292</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4055325333004309</v>
+        <v>-0.4056631768874989</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03897204057400461</v>
+        <v>0.0407868846208643</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9118091856657032</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6907749327237407</v>
+        <v>0.7019945410203721</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6094844869238463</v>
+        <v>-0.6103407533258338</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07869241310002746</v>
+        <v>0.08077011834014437</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.161377550062389</v>
       </c>
       <c r="E17" t="n">
-        <v>1.183694760750264</v>
+        <v>1.195473145834957</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7207440285129854</v>
+        <v>-0.7232231086290339</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1405734008348427</v>
+        <v>0.1426888825338708</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.398537117101029</v>
       </c>
       <c r="E18" t="n">
-        <v>1.53633800468647</v>
+        <v>1.548927009618633</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9149992373396278</v>
+        <v>-0.9173657750885034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1921115089235911</v>
+        <v>0.1954625956328403</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.618361199275835</v>
       </c>
       <c r="E19" t="n">
-        <v>1.902596514021927</v>
+        <v>1.915371253210404</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.020418380979181</v>
+        <v>-1.024280236893292</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2568871178224783</v>
+        <v>0.2604680113234374</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.817647422388493</v>
       </c>
       <c r="E20" t="n">
-        <v>2.215198285531365</v>
+        <v>2.228339771175105</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.234573913556428</v>
+        <v>-1.240053074117675</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3268868961849625</v>
+        <v>0.3298775325154338</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.991260469819609</v>
       </c>
       <c r="E21" t="n">
-        <v>2.476351668041969</v>
+        <v>2.490094428990045</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.264886373794436</v>
+        <v>-1.27182465008113</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4532648914341947</v>
+        <v>0.4560052587243792</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.132915228299325</v>
       </c>
       <c r="E22" t="n">
-        <v>2.697794122141277</v>
+        <v>2.711787152129641</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.373998166292561</v>
+        <v>-1.382294821080937</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4526525979960088</v>
+        <v>0.4565057968049528</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.243157070834541</v>
       </c>
       <c r="E23" t="n">
-        <v>2.773350188001953</v>
+        <v>2.787467565500899</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.482587384442413</v>
+        <v>-1.491952011204592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5507832460943789</v>
+        <v>0.5555965965673163</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.324687231770876</v>
       </c>
       <c r="E24" t="n">
-        <v>2.900327884536401</v>
+        <v>2.913891207304649</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.627573433743662</v>
+        <v>-1.636879034788792</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5915566374125518</v>
+        <v>0.5964298006120988</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.380169137411608</v>
       </c>
       <c r="E25" t="n">
-        <v>2.909808201703995</v>
+        <v>2.924267141352263</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.573127325328311</v>
+        <v>-1.584395728217702</v>
       </c>
       <c r="G25" t="n">
-        <v>0.645276336003423</v>
+        <v>0.6502203300634285</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.411487549781256</v>
       </c>
       <c r="E26" t="n">
-        <v>2.89634561615951</v>
+        <v>2.90969329830814</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.485785004287336</v>
+        <v>-1.498950100217894</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5852495427935001</v>
+        <v>0.5903965853201533</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.418020096289853</v>
       </c>
       <c r="E27" t="n">
-        <v>2.970400067778465</v>
+        <v>2.982883613429501</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.529628519901606</v>
+        <v>-1.542903010161095</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6153636766222248</v>
+        <v>0.6204272961354491</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.399456261656389</v>
       </c>
       <c r="E28" t="n">
-        <v>2.910494474040882</v>
+        <v>2.923116533374592</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.483298841085241</v>
+        <v>-1.496952669952964</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6333924916376028</v>
+        <v>0.6378390956552773</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.353868801219608</v>
       </c>
       <c r="E29" t="n">
-        <v>2.77551289027462</v>
+        <v>2.788308091711673</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.640655893670353</v>
+        <v>-1.652843523726584</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6032531735029373</v>
+        <v>0.6080822641670878</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.281001342236384</v>
       </c>
       <c r="E30" t="n">
-        <v>2.734226368722903</v>
+        <v>2.746673711934149</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.626119827085141</v>
+        <v>-1.637873027863893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5541595171095688</v>
+        <v>0.5591790640873967</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.184241840927086</v>
       </c>
       <c r="E31" t="n">
-        <v>2.621532895714259</v>
+        <v>2.632911479942142</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.666930207852665</v>
+        <v>-1.67723531103982</v>
       </c>
       <c r="G31" t="n">
-        <v>0.548941643722457</v>
+        <v>0.5525492955484782</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.068571048335785</v>
       </c>
       <c r="E32" t="n">
-        <v>2.582382318110147</v>
+        <v>2.592476502735048</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.714161012615974</v>
+        <v>-1.723040841488791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5400500097062294</v>
+        <v>0.544073202580274</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.94182381032818</v>
       </c>
       <c r="E33" t="n">
-        <v>2.407219174215321</v>
+        <v>2.417094570182362</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.707916878761774</v>
+        <v>-1.715182551025698</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5361086658264925</v>
+        <v>0.5401696351594483</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.81054915171078</v>
       </c>
       <c r="E34" t="n">
-        <v>2.233611161212341</v>
+        <v>2.243469242969047</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.698992977353559</v>
+        <v>-1.705720335077999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4779234749884913</v>
+        <v>0.4809534617969951</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.680052140524835</v>
       </c>
       <c r="E35" t="n">
-        <v>2.081022599555209</v>
+        <v>2.090372273135735</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.741189281957388</v>
+        <v>-1.746888018186058</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4148462327214876</v>
+        <v>0.4184003678973845</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.553736192059991</v>
       </c>
       <c r="E36" t="n">
-        <v>1.930425172086523</v>
+        <v>1.939903915234996</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.607033271220249</v>
+        <v>-1.613084587732089</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4182036155072219</v>
+        <v>0.4207582485410929</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.430487302375034</v>
       </c>
       <c r="E37" t="n">
-        <v>1.729969114931517</v>
+        <v>1.738986670477449</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.592627848222105</v>
+        <v>-1.598665785571414</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3344185776803863</v>
+        <v>0.337772812427878</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.310922485463453</v>
       </c>
       <c r="E38" t="n">
-        <v>1.612174245950737</v>
+        <v>1.621331889198465</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.489491032308438</v>
+        <v>-1.49538652092727</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2880904728831432</v>
+        <v>0.2905837191712834</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.194115682358414</v>
       </c>
       <c r="E39" t="n">
-        <v>1.439288707724434</v>
+        <v>1.447994607484348</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.450509661759866</v>
+        <v>-1.456527923870159</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2742847511702148</v>
+        <v>0.2764348612899116</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.078945822443099</v>
       </c>
       <c r="E40" t="n">
-        <v>1.20894517549417</v>
+        <v>1.217241830282546</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.524719154262269</v>
+        <v>-1.529704859828989</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2964532364746137</v>
+        <v>0.2984097422423905</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9662241730183089</v>
       </c>
       <c r="E41" t="n">
-        <v>1.128078369118226</v>
+        <v>1.135402280089638</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.464343715816978</v>
+        <v>-1.469493906381873</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1969138412626795</v>
+        <v>0.1989128455467314</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8561410701194345</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9919131229727457</v>
+        <v>0.9988639914124096</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.34558318610528</v>
+        <v>-1.350552364471226</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1573839250503341</v>
+        <v>0.1586069379075847</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7499358816319593</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9059653828732429</v>
+        <v>0.9118994349605466</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.281907816572182</v>
+        <v>-1.28745938201301</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1164405396670606</v>
+        <v>0.1177910480731365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6490465524316273</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7345893289842667</v>
+        <v>0.7395144348148165</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.208403484636122</v>
+        <v>-1.213228640252469</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1009820978767665</v>
+        <v>0.1024821380993661</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5529122414076448</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5766380841808639</v>
+        <v>0.581841791395884</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.17839008803116</v>
+        <v>-1.182902800851929</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08657667487862261</v>
+        <v>0.0881554160572872</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4628582089217952</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4046544589110656</v>
+        <v>0.4101115832046151</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.03668114654046</v>
+        <v>-1.042138270834009</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01203427733206463</v>
+        <v>0.01337848966165542</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3785930598050196</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3287379426716121</v>
+        <v>0.3329909423373666</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.059023560957762</v>
+        <v>-1.064319348291378</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02661891022971636</v>
+        <v>-0.02549506057710766</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2996214888398381</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1935784947446434</v>
+        <v>0.1981022256992615</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9307653998681361</v>
+        <v>-0.9360808624407686</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01371510147329332</v>
+        <v>-0.01201516082228857</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2257665621663706</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1905988765480212</v>
+        <v>0.1942395827755896</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9025794394630047</v>
+        <v>-0.9076406979475471</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09602213534522758</v>
+        <v>-0.094008964889084</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1549387482695993</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01208621996306756</v>
+        <v>0.01568285365523963</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8432979443070175</v>
+        <v>-0.8486063237936041</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1035711310509857</v>
+        <v>-0.1021309035549956</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08626190146536175</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005678388120252457</v>
+        <v>0.009408813437735086</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9387614170043437</v>
+        <v>-0.9429302066471085</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.146837768657299</v>
+        <v>-0.14527791570809</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01807851290867402</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04483818155877182</v>
+        <v>-0.04114868073844301</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9007740395308729</v>
+        <v>-0.904782279223265</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1554067287536599</v>
+        <v>-0.1538295615941166</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05244416545127333</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1100529417925019</v>
+        <v>-0.1066105619742173</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8556390412275756</v>
+        <v>-0.8595984863272075</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1916060205053332</v>
+        <v>-0.1905577237705469</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1268697559489279</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2135226627503239</v>
+        <v>-0.2101306515439209</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8613472215709725</v>
+        <v>-0.8653971727700792</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2430748717527443</v>
+        <v>-0.2414315957901064</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2077418820471992</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2959335818842641</v>
+        <v>-0.292478609913009</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8423204784326899</v>
+        <v>-0.8463129779338691</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2325132034488167</v>
+        <v>-0.2316947135057404</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2957035935286678</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3275682181841653</v>
+        <v>-0.3249679385957766</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.82833138349213</v>
+        <v>-0.8323474932801287</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2359571572862226</v>
+        <v>-0.235053670310596</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3900330641047365</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3832286823516002</v>
+        <v>-0.3805874782660577</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8286225770295707</v>
+        <v>-0.8332391751123456</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3503505709458714</v>
+        <v>-0.3487324792891743</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4902828665466548</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4025135646257762</v>
+        <v>-0.4005712250300912</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7321336308747172</v>
+        <v>-0.7377953776540357</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3598954228974388</v>
+        <v>-0.3584662135352978</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5944039353509458</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5159531226979168</v>
+        <v>-0.5138061606164627</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7297332517147336</v>
+        <v>-0.7352076902186174</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4132704113007451</v>
+        <v>-0.411814443613542</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.7014690985258482</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5326078190203993</v>
+        <v>-0.5306088147363475</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.718334205238274</v>
+        <v>-0.7240368765147464</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4155464429501459</v>
+        <v>-0.4141786203337356</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.809849259553383</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.545080346537586</v>
+        <v>-0.5443137992255126</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7306288685947537</v>
+        <v>-0.7364070927890485</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4558759608761122</v>
+        <v>-0.4546718362483171</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9167236582091673</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6545911528829601</v>
+        <v>-0.6528203813714968</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7705145131285132</v>
+        <v>-0.7760660785693406</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4898259793034467</v>
+        <v>-0.4879828029124035</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.019945491739013</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.734488363480183</v>
+        <v>-0.7325145435020719</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7852394620082811</v>
+        <v>-0.7905974230971886</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5501502621272956</v>
+        <v>-0.5483968048261666</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.115849831866775</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7632551369410744</v>
+        <v>-0.7612986311732975</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8333147280301679</v>
+        <v>-0.838824581964281</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5427271879512415</v>
+        <v>-0.5408824375410771</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.200501354657112</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8203999011398958</v>
+        <v>-0.8183599723586901</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8470118424237265</v>
+        <v>-0.851780333351707</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5802234714588664</v>
+        <v>-0.5783850171251873</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.270559930342601</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8490903346734041</v>
+        <v>-0.8467056957046336</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9518470249692769</v>
+        <v>-0.9562692316905712</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.664960790854089</v>
+        <v>-0.6624423602600079</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.32357525615479</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9773075712658762</v>
+        <v>-0.9739438924036566</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9159294826403165</v>
+        <v>-0.9206051064401402</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6639203642149092</v>
+        <v>-0.6615152629975618</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.359308861944115</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.025862126110199</v>
+        <v>-1.022737698154417</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.000314221752368</v>
+        <v>-1.004452318022267</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7256895965921121</v>
+        <v>-0.7223762863417742</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.37843075901659</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.057595925614742</v>
+        <v>-1.054137805605245</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9655102979517275</v>
+        <v>-0.9695791373802898</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7544831283780656</v>
+        <v>-0.7515822111375084</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.383446001618935</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.209144060632694</v>
+        <v>-1.204393670924608</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.962222959016891</v>
+        <v>-0.9673511133140886</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.777062432673124</v>
+        <v>-0.7736405151034162</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.377775021645759</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.213410439460979</v>
+        <v>-1.208465658391413</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.00412885709284</v>
+        <v>-1.00925937241872</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8063470584249233</v>
+        <v>-0.803534286255159</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.363260009474233</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.190749286171613</v>
+        <v>-1.185315772164883</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.093463099331821</v>
+        <v>-1.098438573774253</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7692694640035642</v>
+        <v>-0.7662992899216698</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.340694663694525</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.147274878041288</v>
+        <v>-1.14249694299858</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.161788908358802</v>
+        <v>-1.166065518311376</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7594286964571924</v>
+        <v>-0.7564175978781441</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.309984127686048</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.150899844077644</v>
+        <v>-1.144658071252126</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.154310743513502</v>
+        <v>-1.159627780105256</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7661985526979066</v>
+        <v>-0.7633905025855062</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.27076263714277</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.072988258601942</v>
+        <v>-1.067372945386702</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.184990737216335</v>
+        <v>-1.189855243310715</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7812713598034821</v>
+        <v>-0.7779438833810524</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.224201718243223</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9830212606761977</v>
+        <v>-0.9773587268873184</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.267109675803274</v>
+        <v>-1.271950571610834</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7232089424569422</v>
+        <v>-0.7206102368876748</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.170158210532831</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8730083422311287</v>
+        <v>-0.8665894922544645</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.215097787959014</v>
+        <v>-1.220066179315399</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7350660284977003</v>
+        <v>-0.7320155794406196</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.108816169572174</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.78233382271036</v>
+        <v>-0.7760865408179175</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.217043275592941</v>
+        <v>-1.221935327021944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6946987341128229</v>
+        <v>-0.6918418894076621</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.039197877052925</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6614035076399495</v>
+        <v>-0.6545533764240489</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.28186925310371</v>
+        <v>-1.287093422567307</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6717999039361405</v>
+        <v>-0.6684346510547996</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.9605676681071926</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4866480346975406</v>
+        <v>-0.4792469967891848</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.197119341555517</v>
+        <v>-1.202183748078302</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6885569115015076</v>
+        <v>-0.6850484228801283</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.8732725652697754</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2628351078015532</v>
+        <v>-0.2559739584518035</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.211411435176927</v>
+        <v>-1.216300338567687</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6202712399621199</v>
+        <v>-0.6172664374595569</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7775811973864483</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.09393026393301897</v>
+        <v>-0.08780103347467409</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.219415322408741</v>
+        <v>-1.224453757616025</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4870179291910463</v>
+        <v>-0.484137474199066</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6757722340243132</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09560052650103945</v>
+        <v>0.1014369894028224</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.135324924872374</v>
+        <v>-1.140417663739342</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4454449361592525</v>
+        <v>-0.4426589223145502</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.570131395591193</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2448537416401346</v>
+        <v>0.2504021590427195</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.108441465290118</v>
+        <v>-1.113244584638768</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3532908386644611</v>
+        <v>-0.350673244865738</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4632317530627392</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4553819471523441</v>
+        <v>0.460066228057335</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.087370858322827</v>
+        <v>-1.091897737315688</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2778260659128209</v>
+        <v>-0.2754430009631717</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3591691284382229</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6134890198487557</v>
+        <v>0.6181984850596873</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9791853760775879</v>
+        <v>-0.9838767400686246</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2195070834495091</v>
+        <v>-0.2172641062016556</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2611420460220433</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8405759065170485</v>
+        <v>0.8442355009740726</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9334908139766683</v>
+        <v>-0.936858427886691</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1616477145696172</v>
+        <v>-0.159773057796148</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1718532920661259</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9488794401963849</v>
+        <v>0.9520699769552614</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7590462098107164</v>
+        <v>-0.7625956229292493</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09820372584735033</v>
+        <v>-0.09609454022480741</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.0938390086656322</v>
       </c>
       <c r="E89" t="n">
-        <v>1.194431145176656</v>
+        <v>1.196574959219868</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6010540405101598</v>
+        <v>-0.6057713758166979</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02573768780210842</v>
+        <v>0.02672617181028526</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02871388229192897</v>
       </c>
       <c r="E90" t="n">
-        <v>1.364769920464695</v>
+        <v>1.366598930683647</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5276150303676336</v>
+        <v>-0.5322945892152605</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0471962904828007</v>
+        <v>0.04768423641040391</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02139502050811994</v>
       </c>
       <c r="E91" t="n">
-        <v>1.446589008409026</v>
+        <v>1.447744338444061</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3100840137847572</v>
+        <v>-0.31451645163034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07754023110323535</v>
+        <v>0.07744264191771472</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05583249783775312</v>
       </c>
       <c r="E92" t="n">
-        <v>1.58692225718771</v>
+        <v>1.587117435558752</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2199336426313816</v>
+        <v>-0.224641533823192</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09061560794388017</v>
+        <v>0.09032598842556085</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07533986352426733</v>
       </c>
       <c r="E93" t="n">
-        <v>1.598653421698764</v>
+        <v>1.597860116061629</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01500264911451728</v>
+        <v>-0.01865594749505618</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1173880991780836</v>
+        <v>0.1167789537781402</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07945038911465718</v>
       </c>
       <c r="E94" t="n">
-        <v>1.548062873121039</v>
+        <v>1.547482060065279</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1430949794671664</v>
+        <v>0.1388986444897788</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1314425159121774</v>
+        <v>0.130691708791317</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0681318874057488</v>
       </c>
       <c r="E95" t="n">
-        <v>1.54125051836405</v>
+        <v>1.54071849990105</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1962448831361267</v>
+        <v>0.1938319118231728</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1429847981286753</v>
+        <v>0.1419034469923418</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04370953809758769</v>
       </c>
       <c r="E96" t="n">
-        <v>1.510673622913663</v>
+        <v>1.509500978668294</v>
       </c>
       <c r="F96" t="n">
-        <v>0.286618765004727</v>
+        <v>0.2842844946478381</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05215759875314047</v>
+        <v>0.05164604253871774</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01291980017368136</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352376093903574</v>
+        <v>1.352390260075665</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3029082888910679</v>
+        <v>0.3009281728364716</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03112870329256328</v>
+        <v>0.03123416257369042</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01664224958009633</v>
       </c>
       <c r="E98" t="n">
-        <v>1.290164562153285</v>
+        <v>1.289512918237067</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2564275042390585</v>
+        <v>0.2548928355957903</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02812862284736417</v>
+        <v>0.02759030830787933</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0386957500922997</v>
       </c>
       <c r="E99" t="n">
-        <v>1.186435128040449</v>
+        <v>1.185766169913896</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2290647558343674</v>
+        <v>0.2279912747936403</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06120978271974072</v>
+        <v>0.06037870062369396</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0532070264813947</v>
       </c>
       <c r="E100" t="n">
-        <v>1.06953744995881</v>
+        <v>1.069120334891666</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2257608896987572</v>
+        <v>0.2247928679391573</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02485151503681613</v>
+        <v>0.02423449954126626</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06299380504892882</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9085688104998743</v>
+        <v>0.9078148553407712</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1918171673479079</v>
+        <v>0.1911608013743255</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01501838930573029</v>
+        <v>-0.01500737117188118</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07516707860963544</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7385983556862196</v>
+        <v>0.7385810414758852</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1546215214924513</v>
+        <v>0.1548702165136168</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03783379646898376</v>
+        <v>-0.03847914430871704</v>
       </c>
     </row>
   </sheetData>
